--- a/SHArC/SHArea/VanillaC4_sharea_chju_cov.xlsx
+++ b/SHArC/SHArea/VanillaC4_sharea_chju_cov.xlsx
@@ -449,7 +449,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr b="1" lang="en-US"/>
-                  <a:t>Discharge (m³/s)</a:t>
+                  <a:t>Discharge (cfs)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -677,7 +677,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr b="1" baseline="0" i="0" lang="en-US" strike="noStrike" sz="1000"/>
-                  <a:t>Discharge (m³/s)</a:t>
+                  <a:t>Discharge (cfs)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -775,7 +775,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr b="1" lang="en-US"/>
-                  <a:t>Calculated Area (m²)</a:t>
+                  <a:t>Calculated Area (acres)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1175,7 +1175,7 @@
   <dimension ref="B2:K200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -1190,7 +1190,7 @@
     <col customWidth="1" max="8" min="8" style="6" width="2.28515625"/>
     <col customWidth="1" max="9" min="9" style="6" width="12.42578125"/>
     <col bestFit="1" customWidth="1" max="10" min="10" style="6" width="10"/>
-    <col customWidth="1" max="11" min="11" style="14" width="11.85546875"/>
+    <col customWidth="1" max="11" min="11" style="14" width="11.42578125"/>
     <col customWidth="1" max="16" min="12" style="6" width="9.140625"/>
     <col customWidth="1" max="16384" min="17" style="6" width="9.140625"/>
   </cols>
@@ -1238,14 +1238,14 @@
       </c>
       <c r="K2" s="12" t="inlineStr">
         <is>
-          <t>(m²/season)</t>
+          <t>(ac/season)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>(m³/s)</t>
+          <t>(cfs)</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
@@ -1265,31 +1265,31 @@
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>(m² per discharge)</t>
+          <t>(ac per discharge)</t>
         </is>
       </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>(m²·%exceed.)</t>
+          <t>(ac·%exceed.)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="14" t="n">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="C4" s="14" t="inlineStr">
         <is>
-          <t>h000021.tif</t>
+          <t>h000100.tif</t>
         </is>
       </c>
       <c r="D4" s="14" t="inlineStr">
         <is>
-          <t>u000021.tif</t>
+          <t>u000100.tif</t>
         </is>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.5540176538801661</v>
+        <v>0</v>
       </c>
       <c r="F4" s="15" t="n"/>
       <c r="G4" s="15">
@@ -1299,20 +1299,20 @@
     </row>
     <row r="5">
       <c r="B5" s="14" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C5" s="14" t="inlineStr">
         <is>
-          <t>h000020.tif</t>
+          <t>h000090.tif</t>
         </is>
       </c>
       <c r="D5" s="14" t="inlineStr">
         <is>
-          <t>u000020.tif</t>
+          <t>u000090.tif</t>
         </is>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.6591684053116998</v>
+        <v>0</v>
       </c>
       <c r="F5" s="15" t="n"/>
       <c r="G5" s="15">
@@ -1322,20 +1322,20 @@
     </row>
     <row r="6">
       <c r="B6" s="14" t="n">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="C6" s="14" t="inlineStr">
         <is>
-          <t>h000019.tif</t>
+          <t>h000080.tif</t>
         </is>
       </c>
       <c r="D6" s="14" t="inlineStr">
         <is>
-          <t>u000019.tif</t>
+          <t>u000080.tif</t>
         </is>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.7615237971598421</v>
+        <v>0</v>
       </c>
       <c r="F6" s="15" t="n"/>
       <c r="G6" s="15">
@@ -1345,20 +1345,20 @@
     </row>
     <row r="7">
       <c r="B7" s="14" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="C7" s="14" t="inlineStr">
         <is>
-          <t>h000018.tif</t>
+          <t>h000070.tif</t>
         </is>
       </c>
       <c r="D7" s="14" t="inlineStr">
         <is>
-          <t>u000018.tif</t>
+          <t>u000070.tif</t>
         </is>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.9284051589684225</v>
+        <v>0</v>
       </c>
       <c r="F7" s="15" t="n"/>
       <c r="G7" s="15">
@@ -1368,20 +1368,20 @@
     </row>
     <row r="8">
       <c r="B8" s="14" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C8" s="14" t="inlineStr">
         <is>
-          <t>h000017.tif</t>
+          <t>h000060.tif</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>u000017.tif</t>
+          <t>u000060.tif</t>
         </is>
       </c>
       <c r="E8" s="15" t="n">
-        <v>1.044443282460473</v>
+        <v>0.01957612409203052</v>
       </c>
       <c r="F8" s="15" t="n"/>
       <c r="G8" s="15">
@@ -1391,20 +1391,20 @@
     </row>
     <row r="9">
       <c r="B9" s="14" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C9" s="14" t="inlineStr">
         <is>
-          <t>h000016.tif</t>
+          <t>h000050.tif</t>
         </is>
       </c>
       <c r="D9" s="14" t="inlineStr">
         <is>
-          <t>u000016.tif</t>
+          <t>u000050.tif</t>
         </is>
       </c>
       <c r="E9" s="15" t="n">
-        <v>1.187890704589015</v>
+        <v>0.0266175660720928</v>
       </c>
       <c r="F9" s="15" t="n"/>
       <c r="G9" s="15">
@@ -1414,20 +1414,20 @@
     </row>
     <row r="10">
       <c r="B10" s="14" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C10" s="14" t="inlineStr">
         <is>
-          <t>h000015.tif</t>
+          <t>h000040.tif</t>
         </is>
       </c>
       <c r="D10" s="14" t="inlineStr">
         <is>
-          <t>u000015.tif</t>
+          <t>u000040.tif</t>
         </is>
       </c>
       <c r="E10" s="15" t="n">
-        <v>1.42548816420585</v>
+        <v>0.04105265046796617</v>
       </c>
       <c r="F10" s="15" t="n"/>
       <c r="G10" s="15">
@@ -1437,20 +1437,20 @@
     </row>
     <row r="11">
       <c r="B11" s="14" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C11" s="14" t="inlineStr">
         <is>
-          <t>h000014.tif</t>
+          <t>h000030.tif</t>
         </is>
       </c>
       <c r="D11" s="14" t="inlineStr">
         <is>
-          <t>u000014.tif</t>
+          <t>u000030.tif</t>
         </is>
       </c>
       <c r="E11" s="15" t="n">
-        <v>1.76429599534609</v>
+        <v>0.1215274960467499</v>
       </c>
       <c r="F11" s="15" t="n"/>
       <c r="G11" s="15">
@@ -1460,20 +1460,20 @@
     </row>
     <row r="12">
       <c r="B12" s="14" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C12" s="14" t="inlineStr">
         <is>
-          <t>h000013.tif</t>
+          <t>h000020.tif</t>
         </is>
       </c>
       <c r="D12" s="14" t="inlineStr">
         <is>
-          <t>u000013.tif</t>
+          <t>u000020.tif</t>
         </is>
       </c>
       <c r="E12" s="15" t="n">
-        <v>1.956778145863389</v>
+        <v>0.6591684053116998</v>
       </c>
       <c r="F12" s="15" t="n"/>
       <c r="G12" s="15">
@@ -1483,20 +1483,20 @@
     </row>
     <row r="13">
       <c r="B13" s="14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" s="14" t="inlineStr">
         <is>
-          <t>h000012.tif</t>
+          <t>h000015.tif</t>
         </is>
       </c>
       <c r="D13" s="14" t="inlineStr">
         <is>
-          <t>u000012.tif</t>
+          <t>u000015.tif</t>
         </is>
       </c>
       <c r="E13" s="15" t="n">
-        <v>2.10642574208126</v>
+        <v>1.42548816420585</v>
       </c>
       <c r="F13" s="15" t="n"/>
       <c r="G13" s="15">
@@ -1506,20 +1506,20 @@
     </row>
     <row r="14">
       <c r="B14" s="14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="14" t="inlineStr">
         <is>
-          <t>h000011.tif</t>
+          <t>h000012.tif</t>
         </is>
       </c>
       <c r="D14" s="14" t="inlineStr">
         <is>
-          <t>u000011.tif</t>
+          <t>u000012.tif</t>
         </is>
       </c>
       <c r="E14" s="15" t="n">
-        <v>3.841484665203082</v>
+        <v>2.10642574208126</v>
       </c>
       <c r="F14" s="15" t="n"/>
       <c r="G14" s="15">
